--- a/report.xlsx
+++ b/report.xlsx
@@ -482,10 +482,10 @@
         <v>4.986300808699939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9764347454361184</v>
+        <v>0.9720950618604753</v>
       </c>
       <c r="G2" t="n">
-        <v>4.009866063263821</v>
+        <v>4.014205746839464</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0.86548816927815</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04156499893661336</v>
+        <v>0.0344005978505042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8239231703415366</v>
+        <v>0.8310875714276458</v>
       </c>
     </row>
     <row r="4">
@@ -528,10 +528,10 @@
         <v>0.9802672882570709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.998936843223361</v>
+        <v>0.9818465345344349</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01866955496629003</v>
+        <v>-0.001579246277364086</v>
       </c>
     </row>
     <row r="5">
@@ -551,10 +551,10 @@
         <v>11.33726052795274</v>
       </c>
       <c r="F5" t="n">
-        <v>2.489579701146473</v>
+        <v>2.495811772711313</v>
       </c>
       <c r="G5" t="n">
-        <v>8.847680826806267</v>
+        <v>8.841448755241426</v>
       </c>
     </row>
     <row r="6">
@@ -574,10 +574,10 @@
         <v>9.422144412753454</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1633538215876484</v>
+        <v>-0.1657851688188998</v>
       </c>
       <c r="G6" t="n">
-        <v>9.585498234341102</v>
+        <v>9.587929581572354</v>
       </c>
     </row>
     <row r="7">
@@ -597,10 +597,10 @@
         <v>-0.135228400547366</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2685940995492292</v>
+        <v>-0.2827126896273126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1333656990018632</v>
+        <v>0.1474842890799466</v>
       </c>
     </row>
     <row r="8">
@@ -620,10 +620,10 @@
         <v>3.644452032773008</v>
       </c>
       <c r="F8" t="n">
-        <v>2.323090386476428</v>
+        <v>2.306143006637247</v>
       </c>
       <c r="G8" t="n">
-        <v>1.32136164629658</v>
+        <v>1.338309026135761</v>
       </c>
     </row>
     <row r="9">
@@ -643,10 +643,10 @@
         <v>5.905477611418725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9865984886649466</v>
+        <v>0.9707837327440938</v>
       </c>
       <c r="G9" t="n">
-        <v>4.918879122753778</v>
+        <v>4.934693878674631</v>
       </c>
     </row>
     <row r="10">
@@ -666,10 +666,10 @@
         <v>5.288159056945047</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4365714692230744</v>
+        <v>-0.4410897596123498</v>
       </c>
       <c r="G10" t="n">
-        <v>5.724730526168122</v>
+        <v>5.729248816557397</v>
       </c>
     </row>
     <row r="11">
@@ -689,10 +689,10 @@
         <v>3.44356399137643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8343106240694467</v>
+        <v>0.8228734548858259</v>
       </c>
       <c r="G11" t="n">
-        <v>2.609253367306983</v>
+        <v>2.620690536490604</v>
       </c>
     </row>
     <row r="12">
@@ -712,10 +712,10 @@
         <v>-4.865984395754397</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3533011479735757</v>
+        <v>-0.3654899218369527</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.512683247780822</v>
+        <v>-4.500494473917445</v>
       </c>
     </row>
     <row r="13">
@@ -735,10 +735,10 @@
         <v>4.489635463092554</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.418183569566378</v>
+        <v>-0.4216916522678886</v>
       </c>
       <c r="G13" t="n">
-        <v>4.907819032658932</v>
+        <v>4.911327115360443</v>
       </c>
     </row>
     <row r="14">
@@ -758,10 +758,10 @@
         <v>4.441607923818843</v>
       </c>
       <c r="F14" t="n">
-        <v>0.559945362597984</v>
+        <v>0.5542843781119533</v>
       </c>
       <c r="G14" t="n">
-        <v>3.881662561220859</v>
+        <v>3.88732354570689</v>
       </c>
     </row>
     <row r="15">
@@ -781,10 +781,10 @@
         <v>4.424357353030411</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.593865665157795</v>
+        <v>-2.594141141961276</v>
       </c>
       <c r="G15" t="n">
-        <v>7.018223018188205</v>
+        <v>7.018498494991687</v>
       </c>
     </row>
     <row r="16">
@@ -804,10 +804,10 @@
         <v>3.804765712186434</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.676657815170893</v>
+        <v>-2.694444940456357</v>
       </c>
       <c r="G16" t="n">
-        <v>6.481423527357327</v>
+        <v>6.499210652642791</v>
       </c>
     </row>
     <row r="17">
@@ -827,10 +827,10 @@
         <v>-2.584614796845861</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8078105734608989</v>
+        <v>-0.8263436067386434</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.776804223384962</v>
+        <v>-1.758271190107218</v>
       </c>
     </row>
     <row r="18">
@@ -850,10 +850,10 @@
         <v>5.161482777470138</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.050224648071872</v>
+        <v>-1.045213461989154</v>
       </c>
       <c r="G18" t="n">
-        <v>6.21170742554201</v>
+        <v>6.206696239459292</v>
       </c>
     </row>
     <row r="19">
@@ -873,10 +873,10 @@
         <v>4.513651579251563</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4938707088598635</v>
+        <v>0.4851161202604031</v>
       </c>
       <c r="G19" t="n">
-        <v>4.019780870391699</v>
+        <v>4.02853545899116</v>
       </c>
     </row>
     <row r="20">
@@ -896,10 +896,10 @@
         <v>-1.282340817871755</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.328566801449235</v>
+        <v>-1.346945382451785</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04622598357748001</v>
+        <v>0.06460456458003028</v>
       </c>
     </row>
     <row r="21">
@@ -919,10 +919,10 @@
         <v>-8.804728500178554</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.694235769707227</v>
+        <v>-1.709755930416015</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.110492730471327</v>
+        <v>-7.094972569762539</v>
       </c>
     </row>
     <row r="22">
@@ -942,10 +942,10 @@
         <v>3.889911659907063</v>
       </c>
       <c r="F22" t="n">
-        <v>2.087486608170675</v>
+        <v>2.073290629489903</v>
       </c>
       <c r="G22" t="n">
-        <v>1.802425051736388</v>
+        <v>1.81662103041716</v>
       </c>
     </row>
     <row r="23">
@@ -965,10 +965,10 @@
         <v>0.613452361726784</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3567157987737113</v>
+        <v>-0.3732633655669537</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9701681605004953</v>
+        <v>0.9867157272937377</v>
       </c>
     </row>
     <row r="24">
@@ -988,10 +988,10 @@
         <v>7.053502492929621</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4774704837513699</v>
+        <v>0.4814424779445163</v>
       </c>
       <c r="G24" t="n">
-        <v>6.576032009178251</v>
+        <v>6.572060014985104</v>
       </c>
     </row>
     <row r="25">
@@ -1011,10 +1011,10 @@
         <v>5.540381836161252</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.428858129057368</v>
+        <v>-1.416341239644028</v>
       </c>
       <c r="G25" t="n">
-        <v>6.969239965218621</v>
+        <v>6.95672307580528</v>
       </c>
     </row>
     <row r="26">
@@ -1034,10 +1034,10 @@
         <v>11.64977728784418</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6178388829701689</v>
+        <v>-0.6169548552865809</v>
       </c>
       <c r="G26" t="n">
-        <v>12.26761617081435</v>
+        <v>12.26673214313076</v>
       </c>
     </row>
     <row r="27">
@@ -1057,10 +1057,10 @@
         <v>-6.600788813988969</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6535051684904678</v>
+        <v>0.6429291696768482</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.254293982479437</v>
+        <v>-7.243717983665817</v>
       </c>
     </row>
     <row r="28">
@@ -1080,10 +1080,10 @@
         <v>20.05068959229931</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.714564717503606</v>
+        <v>-1.707470672297163</v>
       </c>
       <c r="G28" t="n">
-        <v>21.76525430980292</v>
+        <v>21.75816026459647</v>
       </c>
     </row>
     <row r="29">
@@ -1103,10 +1103,10 @@
         <v>-3.137319548807243</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8047020024942069</v>
+        <v>0.7917055734992782</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.94202155130145</v>
+        <v>-3.929025122306521</v>
       </c>
     </row>
     <row r="30">
@@ -1126,10 +1126,10 @@
         <v>0.03781495212695096</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.8210833363607919</v>
+        <v>-0.8357365333564998</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8588982884877429</v>
+        <v>0.8735514854834507</v>
       </c>
     </row>
     <row r="31">
@@ -1149,10 +1149,10 @@
         <v>-0.1340822944103889</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.317150610704633</v>
+        <v>-0.3327656797817762</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1830683162942441</v>
+        <v>0.1986833853713873</v>
       </c>
     </row>
     <row r="32">
@@ -1172,10 +1172,10 @@
         <v>-0.803151602759568</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.890062315681433</v>
+        <v>-0.9081826021432524</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08691071292186506</v>
+        <v>0.1050309993836845</v>
       </c>
     </row>
     <row r="33">
@@ -1195,10 +1195,10 @@
         <v>1.467270611767667</v>
       </c>
       <c r="F33" t="n">
-        <v>2.633892429056144</v>
+        <v>2.615050903353499</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.166621817288477</v>
+        <v>-1.147780291585832</v>
       </c>
     </row>
     <row r="34">
@@ -1218,10 +1218,10 @@
         <v>6.29007286001394</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2868837823221622</v>
+        <v>-0.30650050568868</v>
       </c>
       <c r="G34" t="n">
-        <v>6.576956642336103</v>
+        <v>6.59657336570262</v>
       </c>
     </row>
     <row r="35">
@@ -1241,10 +1241,10 @@
         <v>-1.022658437216371</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.40685801593859</v>
+        <v>-1.421407327652775</v>
       </c>
       <c r="G35" t="n">
-        <v>0.384199578722219</v>
+        <v>0.3987488904364039</v>
       </c>
     </row>
     <row r="36">
@@ -1264,10 +1264,10 @@
         <v>-0.02264684683935458</v>
       </c>
       <c r="F36" t="n">
-        <v>1.173703430193674</v>
+        <v>1.155409429470366</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.196350277033029</v>
+        <v>-1.178056276309721</v>
       </c>
     </row>
     <row r="37">
@@ -1287,10 +1287,10 @@
         <v>-2.148665717195315</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.405679232579394</v>
+        <v>-1.411919613611191</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.7429864846159213</v>
+        <v>-0.7367461035841236</v>
       </c>
     </row>
     <row r="38">
@@ -1310,10 +1310,10 @@
         <v>8.848901905568365</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6278986876917827</v>
+        <v>0.634543863557969</v>
       </c>
       <c r="G38" t="n">
-        <v>8.221003217876582</v>
+        <v>8.214358042010396</v>
       </c>
     </row>
     <row r="39">
@@ -1333,10 +1333,10 @@
         <v>3.024632496744735</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.468888886771915</v>
+        <v>-2.46760474392282</v>
       </c>
       <c r="G39" t="n">
-        <v>5.49352138351665</v>
+        <v>5.492237240667555</v>
       </c>
     </row>
     <row r="40">
@@ -1356,10 +1356,10 @@
         <v>6.955096568067598</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.596170567293587</v>
+        <v>-1.594712929669084</v>
       </c>
       <c r="G40" t="n">
-        <v>8.551267135361185</v>
+        <v>8.549809497736682</v>
       </c>
     </row>
     <row r="41">
@@ -1379,10 +1379,10 @@
         <v>0.504232006427842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3770896765066076</v>
+        <v>0.3612003518970965</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1271423299212344</v>
+        <v>0.1430316545307455</v>
       </c>
     </row>
     <row r="42">
@@ -1402,10 +1402,10 @@
         <v>1.976166324894192</v>
       </c>
       <c r="F42" t="n">
-        <v>1.113004603106449</v>
+        <v>1.095656959641985</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8631617217877431</v>
+        <v>0.8805093652522071</v>
       </c>
     </row>
     <row r="43">
@@ -1425,10 +1425,10 @@
         <v>4.475368266492228</v>
       </c>
       <c r="F43" t="n">
-        <v>0.319529564936504</v>
+        <v>0.3114834647116052</v>
       </c>
       <c r="G43" t="n">
-        <v>4.155838701555724</v>
+        <v>4.163884801780623</v>
       </c>
     </row>
     <row r="44">
@@ -1448,10 +1448,10 @@
         <v>4.288129537497368</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03633789776429097</v>
+        <v>0.03047125501076753</v>
       </c>
       <c r="G44" t="n">
-        <v>4.251791639733077</v>
+        <v>4.2576582824866</v>
       </c>
     </row>
     <row r="45">
@@ -1471,10 +1471,10 @@
         <v>7.003260262815972</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1163538302221925</v>
+        <v>0.1263714393456432</v>
       </c>
       <c r="G45" t="n">
-        <v>6.886906432593779</v>
+        <v>6.876888823470328</v>
       </c>
     </row>
     <row r="46">
@@ -1494,10 +1494,10 @@
         <v>-2.05797888698893</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.166046653237327</v>
+        <v>-2.184514547461514</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1080677662483966</v>
+        <v>0.1265356604725834</v>
       </c>
     </row>
     <row r="47">
@@ -1517,10 +1517,10 @@
         <v>5.078915495450509</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6417573870708759</v>
+        <v>-0.6369405345931369</v>
       </c>
       <c r="G47" t="n">
-        <v>5.720672882521385</v>
+        <v>5.715856030043646</v>
       </c>
     </row>
     <row r="48">
@@ -1540,10 +1540,10 @@
         <v>-2.504961442934059</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.3250386729997099</v>
+        <v>-0.3329821868520164</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.179922769934349</v>
+        <v>-2.171979256082043</v>
       </c>
     </row>
     <row r="49">
@@ -1563,10 +1563,10 @@
         <v>5.286280604903891</v>
       </c>
       <c r="F49" t="n">
-        <v>1.650395286380505</v>
+        <v>1.642805765041502</v>
       </c>
       <c r="G49" t="n">
-        <v>3.635885318523386</v>
+        <v>3.643474839862389</v>
       </c>
     </row>
     <row r="50">
@@ -1586,10 +1586,10 @@
         <v>2.418909481178747</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5731606460317054</v>
+        <v>0.5579399177642941</v>
       </c>
       <c r="G50" t="n">
-        <v>1.845748835147041</v>
+        <v>1.860969563414453</v>
       </c>
     </row>
     <row r="51">
@@ -1609,10 +1609,10 @@
         <v>-3.579343336564632</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.399205420305221</v>
+        <v>-2.412433327407098</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.180137916259411</v>
+        <v>-1.166910009157534</v>
       </c>
     </row>
     <row r="52">
@@ -1632,10 +1632,10 @@
         <v>-5.355532232664144</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7353740061224086</v>
+        <v>0.7189960177984709</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.090906238786553</v>
+        <v>-6.074528250462615</v>
       </c>
     </row>
     <row r="53">
@@ -1655,10 +1655,10 @@
         <v>0.8542717460124317</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5956408158090784</v>
+        <v>-0.6111215091600658</v>
       </c>
       <c r="G53" t="n">
-        <v>1.44991256182151</v>
+        <v>1.465393255172498</v>
       </c>
     </row>
     <row r="54">
@@ -1678,10 +1678,10 @@
         <v>-0.6492095051623128</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.030602544787333</v>
+        <v>-1.048719277620308</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3813930396250198</v>
+        <v>0.3995097724579947</v>
       </c>
     </row>
     <row r="55">
@@ -1701,10 +1701,10 @@
         <v>1.731847363049855</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9138737116715158</v>
+        <v>0.8985066295543099</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8179736513783392</v>
+        <v>0.833340733495545</v>
       </c>
     </row>
     <row r="56">
@@ -1724,10 +1724,10 @@
         <v>7.985988670231985</v>
       </c>
       <c r="F56" t="n">
-        <v>1.886813864006122</v>
+        <v>1.892407537369809</v>
       </c>
       <c r="G56" t="n">
-        <v>6.099174806225863</v>
+        <v>6.093581132862176</v>
       </c>
     </row>
     <row r="57">
@@ -1747,10 +1747,10 @@
         <v>5.961025331012072</v>
       </c>
       <c r="F57" t="n">
-        <v>1.159308207408142</v>
+        <v>1.140033647026288</v>
       </c>
       <c r="G57" t="n">
-        <v>4.801717123603931</v>
+        <v>4.820991683985784</v>
       </c>
     </row>
     <row r="58">
@@ -1770,10 +1770,10 @@
         <v>1.654264025751962</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5821255441719353</v>
+        <v>-0.5741940637560197</v>
       </c>
       <c r="G58" t="n">
-        <v>2.236389569923897</v>
+        <v>2.228458089507982</v>
       </c>
     </row>
     <row r="59">
@@ -1793,10 +1793,10 @@
         <v>6.495833881617414</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.06485088620652313</v>
+        <v>-0.06011969784995852</v>
       </c>
       <c r="G59" t="n">
-        <v>6.560684767823937</v>
+        <v>6.555953579467372</v>
       </c>
     </row>
     <row r="60">
@@ -1816,10 +1816,10 @@
         <v>13.33540149609077</v>
       </c>
       <c r="F60" t="n">
-        <v>0.84971149380935</v>
+        <v>0.8578696529528127</v>
       </c>
       <c r="G60" t="n">
-        <v>12.48569000228142</v>
+        <v>12.47753184313796</v>
       </c>
     </row>
     <row r="61">
@@ -1839,10 +1839,10 @@
         <v>2.215613397653095</v>
       </c>
       <c r="F61" t="n">
-        <v>1.452758065741534</v>
+        <v>1.439522635912284</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7628553319115607</v>
+        <v>0.776090761740811</v>
       </c>
     </row>
     <row r="62">
@@ -1862,10 +1862,10 @@
         <v>2.775131704540239</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7929482406282444</v>
+        <v>-0.8115355420605641</v>
       </c>
       <c r="G62" t="n">
-        <v>3.568079945168483</v>
+        <v>3.586667246600803</v>
       </c>
     </row>
     <row r="63">
@@ -1885,10 +1885,10 @@
         <v>-0.118248165002325</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1917087816588007</v>
+        <v>-0.208056279174655</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07346061665647574</v>
+        <v>0.08980811417232998</v>
       </c>
     </row>
     <row r="64">
@@ -1908,10 +1908,10 @@
         <v>-1.67256002344687</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.642103078721341</v>
+        <v>-1.660934402331506</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0304569447255293</v>
+        <v>-0.01162562111536402</v>
       </c>
     </row>
     <row r="65">
@@ -1931,10 +1931,10 @@
         <v>-4.879204241929385</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.590979487759271</v>
+        <v>-1.607517971988317</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.288224754170114</v>
+        <v>-3.271686269941068</v>
       </c>
     </row>
     <row r="66">
@@ -1954,10 +1954,10 @@
         <v>10.51463142650162</v>
       </c>
       <c r="F66" t="n">
-        <v>1.541731386935929</v>
+        <v>1.545900882128475</v>
       </c>
       <c r="G66" t="n">
-        <v>8.97290003956569</v>
+        <v>8.968730544373145</v>
       </c>
     </row>
     <row r="67">
@@ -1977,10 +1977,10 @@
         <v>2.282655045859172</v>
       </c>
       <c r="F67" t="n">
-        <v>2.027279609414712</v>
+        <v>2.011460103114969</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2553754364444605</v>
+        <v>0.2711949427442034</v>
       </c>
     </row>
     <row r="68">
@@ -2000,10 +2000,10 @@
         <v>0.1913365420900075</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.04120713476538512</v>
+        <v>-0.0585593033385968</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2325436768553926</v>
+        <v>0.2498958454286043</v>
       </c>
     </row>
     <row r="69">
@@ -2023,10 +2023,10 @@
         <v>16.014224583233</v>
       </c>
       <c r="F69" t="n">
-        <v>1.169181031397272</v>
+        <v>1.16001262400877</v>
       </c>
       <c r="G69" t="n">
-        <v>14.84504355183573</v>
+        <v>14.85421195922423</v>
       </c>
     </row>
     <row r="70">
@@ -2046,10 +2046,10 @@
         <v>1.368555093152036</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6497375463854073</v>
+        <v>0.636364698965191</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7188175467666288</v>
+        <v>0.7321903941868451</v>
       </c>
     </row>
     <row r="71">
@@ -2069,10 +2069,10 @@
         <v>7.510157448312082</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6529062234235656</v>
+        <v>-0.6534778858078862</v>
       </c>
       <c r="G71" t="n">
-        <v>8.163063671735648</v>
+        <v>8.163635334119968</v>
       </c>
     </row>
     <row r="72">
@@ -2092,10 +2092,10 @@
         <v>-2.101710270949893</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8125983029432313</v>
+        <v>0.802055944384243</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.914308573893124</v>
+        <v>-2.903766215334136</v>
       </c>
     </row>
     <row r="73">
@@ -2115,10 +2115,10 @@
         <v>5.485642741589063</v>
       </c>
       <c r="F73" t="n">
-        <v>2.300571233730573</v>
+        <v>2.291033388957571</v>
       </c>
       <c r="G73" t="n">
-        <v>3.18507150785849</v>
+        <v>3.194609352631493</v>
       </c>
     </row>
     <row r="74">
@@ -2138,10 +2138,10 @@
         <v>5.277639991115992</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1918401993161041</v>
+        <v>-0.2094284203594556</v>
       </c>
       <c r="G74" t="n">
-        <v>5.469480190432096</v>
+        <v>5.487068411475447</v>
       </c>
     </row>
     <row r="75">
@@ -2161,10 +2161,10 @@
         <v>3.515355764197085</v>
       </c>
       <c r="F75" t="n">
-        <v>2.289139320349427</v>
+        <v>2.271706682917493</v>
       </c>
       <c r="G75" t="n">
-        <v>1.226216443847657</v>
+        <v>1.243649081279592</v>
       </c>
     </row>
     <row r="76">
@@ -2184,10 +2184,10 @@
         <v>4.331455853114261</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.500745927956515</v>
+        <v>-3.496903115116584</v>
       </c>
       <c r="G76" t="n">
-        <v>7.832201781070776</v>
+        <v>7.828358968230845</v>
       </c>
     </row>
     <row r="77">
@@ -2207,10 +2207,10 @@
         <v>10.84866203912398</v>
       </c>
       <c r="F77" t="n">
-        <v>1.581074552168076</v>
+        <v>1.586662629826249</v>
       </c>
       <c r="G77" t="n">
-        <v>9.267587486955904</v>
+        <v>9.261999409297731</v>
       </c>
     </row>
     <row r="78">
@@ -2230,10 +2230,10 @@
         <v>0.0734763197809582</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08969452211603826</v>
+        <v>0.07115389570868486</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01621820233508006</v>
+        <v>0.00232242407227334</v>
       </c>
     </row>
     <row r="79">
@@ -2253,10 +2253,10 @@
         <v>4.874661547222006</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.1632326701681182</v>
+        <v>-0.1657372738503167</v>
       </c>
       <c r="G79" t="n">
-        <v>5.037894217390124</v>
+        <v>5.040398821072323</v>
       </c>
     </row>
     <row r="80">
@@ -2276,10 +2276,10 @@
         <v>2.806273101252503</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3503739689267635</v>
+        <v>0.343004650347388</v>
       </c>
       <c r="G80" t="n">
-        <v>2.455899132325739</v>
+        <v>2.463268450905115</v>
       </c>
     </row>
     <row r="81">
@@ -2299,10 +2299,10 @@
         <v>-2.785991620662699</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.790656333713188</v>
+        <v>-2.80757501991836</v>
       </c>
       <c r="G81" t="n">
-        <v>0.004664713050488628</v>
+        <v>0.02158339925566063</v>
       </c>
     </row>
     <row r="82">
@@ -2322,10 +2322,10 @@
         <v>-2.66303841490125</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5965846338763989</v>
+        <v>0.6058676225169748</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.259623048777649</v>
+        <v>-3.268906037418225</v>
       </c>
     </row>
     <row r="83">
@@ -2345,10 +2345,10 @@
         <v>0.7511203751933013</v>
       </c>
       <c r="F83" t="n">
-        <v>0.604294235966826</v>
+        <v>0.5879448694576156</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1468261392264754</v>
+        <v>0.1631755057356858</v>
       </c>
     </row>
     <row r="84">
@@ -2368,10 +2368,10 @@
         <v>4.646214745638241</v>
       </c>
       <c r="F84" t="n">
-        <v>2.235012311809374</v>
+        <v>2.221582392572917</v>
       </c>
       <c r="G84" t="n">
-        <v>2.411202433828867</v>
+        <v>2.424632353065325</v>
       </c>
     </row>
     <row r="85">
@@ -2391,10 +2391,10 @@
         <v>3.056315173829835</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6615495225135439</v>
+        <v>-0.6701018855708969</v>
       </c>
       <c r="G85" t="n">
-        <v>3.717864696343379</v>
+        <v>3.726417059400732</v>
       </c>
     </row>
     <row r="86">
@@ -2414,10 +2414,10 @@
         <v>1.695412533187042</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.016964612518291</v>
+        <v>-1.027392309536557</v>
       </c>
       <c r="G86" t="n">
-        <v>2.712377145705333</v>
+        <v>2.722804842723599</v>
       </c>
     </row>
     <row r="87">
@@ -2437,10 +2437,10 @@
         <v>-0.4144812598022071</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.724838695793779</v>
+        <v>-0.7422197683631334</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3103574359915719</v>
+        <v>0.3277385085609263</v>
       </c>
     </row>
     <row r="88">
@@ -2460,10 +2460,10 @@
         <v>6.960971654360744</v>
       </c>
       <c r="F88" t="n">
-        <v>1.461413181212808</v>
+        <v>1.457600321360975</v>
       </c>
       <c r="G88" t="n">
-        <v>5.499558473147936</v>
+        <v>5.50337133299977</v>
       </c>
     </row>
     <row r="89">
@@ -2483,10 +2483,10 @@
         <v>4.445616066457691</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5658834035825238</v>
+        <v>0.5578174404064264</v>
       </c>
       <c r="G89" t="n">
-        <v>3.879732662875167</v>
+        <v>3.887798626051265</v>
       </c>
     </row>
     <row r="90">
@@ -2506,10 +2506,10 @@
         <v>0.9511493930622901</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6821116398243512</v>
+        <v>-0.697385262898532</v>
       </c>
       <c r="G90" t="n">
-        <v>1.633261032886641</v>
+        <v>1.648534655960822</v>
       </c>
     </row>
     <row r="91">
@@ -2529,10 +2529,10 @@
         <v>1.971413803413429</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9155537025103184</v>
+        <v>0.9041002176916699</v>
       </c>
       <c r="G91" t="n">
-        <v>1.055860100903111</v>
+        <v>1.067313585721759</v>
       </c>
     </row>
     <row r="92">
@@ -2552,10 +2552,10 @@
         <v>0.1455600410961963</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1911729875094784</v>
+        <v>0.1737734507420616</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04561294641328214</v>
+        <v>-0.02821340964586526</v>
       </c>
     </row>
     <row r="93">
@@ -2575,10 +2575,10 @@
         <v>8.23247270909037</v>
       </c>
       <c r="F93" t="n">
-        <v>1.593277421181385</v>
+        <v>1.592966655576765</v>
       </c>
       <c r="G93" t="n">
-        <v>6.639195287908985</v>
+        <v>6.639506053513605</v>
       </c>
     </row>
     <row r="94">
@@ -2598,10 +2598,10 @@
         <v>0.9226743068841807</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9110152405063865</v>
+        <v>-0.9248006053069957</v>
       </c>
       <c r="G94" t="n">
-        <v>1.833689547390567</v>
+        <v>1.847474912191176</v>
       </c>
     </row>
     <row r="95">
@@ -2621,10 +2621,10 @@
         <v>2.722360698903392</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2814414971003232</v>
+        <v>-0.2883072389627803</v>
       </c>
       <c r="G95" t="n">
-        <v>3.003802196003715</v>
+        <v>3.010667937866172</v>
       </c>
     </row>
     <row r="96">
@@ -2644,10 +2644,10 @@
         <v>-3.39840219490278</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1825614142190553</v>
+        <v>-0.190572899538386</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.215840780683725</v>
+        <v>-3.207829295364394</v>
       </c>
     </row>
     <row r="97">
@@ -2667,10 +2667,10 @@
         <v>2.494965235732183</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.778431135420862</v>
+        <v>-1.77925768248104</v>
       </c>
       <c r="G97" t="n">
-        <v>4.273396371153045</v>
+        <v>4.274222918213223</v>
       </c>
     </row>
     <row r="98">
@@ -2690,10 +2690,10 @@
         <v>8.541373330597519</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8812252361942132</v>
+        <v>0.8893462902062161</v>
       </c>
       <c r="G98" t="n">
-        <v>7.660148094403306</v>
+        <v>7.652027040391303</v>
       </c>
     </row>
     <row r="99">
@@ -2713,10 +2713,10 @@
         <v>9.878668344089347</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7244143936319478</v>
+        <v>0.7319554890798035</v>
       </c>
       <c r="G99" t="n">
-        <v>9.154253950457399</v>
+        <v>9.146712855009543</v>
       </c>
     </row>
     <row r="100">
@@ -2736,10 +2736,10 @@
         <v>2.912159528331103</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01885001306984124</v>
+        <v>0.002518786324597233</v>
       </c>
       <c r="G100" t="n">
-        <v>2.893309515261262</v>
+        <v>2.909640742006506</v>
       </c>
     </row>
     <row r="101">
@@ -2759,10 +2759,10 @@
         <v>-0.3640043500518034</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3699438078373854</v>
+        <v>-0.3885592808084041</v>
       </c>
       <c r="G101" t="n">
-        <v>0.005939457785581963</v>
+        <v>0.02455493075660066</v>
       </c>
     </row>
   </sheetData>
